--- a/7-seaborn-plotting-basics/seaborn-plotting-basics-finish.xlsx
+++ b/7-seaborn-plotting-basics/seaborn-plotting-basics-finish.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/Stringfest assets/OReilly/oreilly-shortcuts/python-in-excel/7-seaborn-plotting-basics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-python-in-excel\7-seaborn-plotting-basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{7E1BA378-9AC3-4318-A814-BB84E09EE83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C22826E-CAA2-4E18-99B9-F8EF397DD2BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F5CEA6-2DEB-4729-B4DF-C7FDDC024209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{5D8B9836-D97A-46FF-8C05-2FA4C80BFB00}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{5D8B9836-D97A-46FF-8C05-2FA4C80BFB00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -877,18 +876,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EADC078-C858-46D8-97C7-0CFB8EBD8686}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="26.4" x14ac:dyDescent="1"/>
   <cols>
-    <col min="1" max="1" width="10.92578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.58984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.91015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:5" x14ac:dyDescent="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -899,7 +898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:5" x14ac:dyDescent="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -914,7 +913,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:5" x14ac:dyDescent="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -925,7 +924,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:5" x14ac:dyDescent="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -936,7 +935,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:5" x14ac:dyDescent="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -947,7 +946,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:5" x14ac:dyDescent="1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -958,19 +957,19 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:5" x14ac:dyDescent="1">
       <c r="E13" t="e" cm="1" vm="2">
         <f t="array" ref="E13">_xlfn._xlws.PY(1,0,nyc[#All])</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="26" spans="5:5" x14ac:dyDescent="1">
       <c r="E26" t="e" cm="1" vm="3">
         <f t="array" ref="E26">_xlfn._xlws.PY(2,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.85">
+    <row r="40" spans="5:5" x14ac:dyDescent="1">
       <c r="E40" t="e" cm="1" vm="4">
         <f t="array" ref="E40">_xlfn._xlws.PY(3,0)</f>
         <v>#VALUE!</v>
